--- a/InputFiles/CTDC/TC02_CTDC_AnatomCollecSite-Neck.xlsx
+++ b/InputFiles/CTDC/TC02_CTDC_AnatomCollecSite-Neck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CTDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2A4B41-208B-4D3D-8C5B-47EC37654DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9363B242-6DE7-4A3C-B373-C06480DB3927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,58 +66,6 @@
   </si>
   <si>
     <t>TC02_CTDC_AnatomCollecSite-Neck_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>SELECT
-    prt.participant_id AS "Participant ID",
-    dgn.ctep_disease_term AS "Diagnosis",
-    demo.age_at_enrollment AS "Age",
-    demo.sex AS "Sex",
-    demo.race AS "Race",
-    demo.ethnicity AS "Ethnicity",
-    exp.carcinogen_exposure AS "Carcinogen Exposure",
-    REPLACE(GROUP_CONCAT(DISTINCT tgt.targeted_therapy), ',', ', ') AS "Targeted Therapy"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON std.study_short_name = prt."study.study_short_name"
-LEFT JOIN 
-    df_diagnosis dgn 
-        ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_demographic demo 
-        ON prt.participant_id = demo."participant.participant_id"
-LEFT JOIN 
-    df_exposure exp 
-        ON prt.participant_id = exp."participant.participant_id"
-LEFT JOIN 
-    df_targeted_therapy tgt 
-        ON prt.participant_id = tgt."participant.participant_id"
-LEFT JOIN 
-    df_non_targeted_therapy ntt 
-        ON prt.participant_id = ntt."participant.participant_id"
-LEFT JOIN 
-    df_participant_status pst 
-        ON prt.participant_id = pst."participant.participant_id"
-LEFT JOIN 
-    df_biospecimen bio 
-        ON prt.participant_id = bio."participant.participant_id"
-LEFT JOIN 
-    df_file fil 
-        ON prt.participant_id = fil."participant.participant_id"
-WHERE 
-    std.study_id = 'NCT04314401'
-    AND bio.anatomical_collection_site = 'Neck'
-GROUP BY
-    prt.participant_id,
-    dgn.ctep_disease_term,
-    demo.age_at_enrollment,
-    demo.sex,
-    demo.race,
-    demo.ethnicity,
-    exp.carcinogen_exposure
-LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT 
@@ -268,6 +216,57 @@
         ON bio.specimen_record_id = fil."specimen.specimen_record_id"
 WHERE 
     std.study_id = 'NCT04314401' AND bio.anatomical_collection_site = 'Neck' AND fil.data_file_name IS NOT NULL
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT
+    prt.participant_id AS "Participant ID",
+    dgn.ctep_disease_term AS "Diagnosis",
+    demo.age_at_enrollment AS "Age",
+    demo.sex AS "Sex",
+    demo.race AS "Race",
+    demo.ethnicity AS "Ethnicity",
+    exp.carcinogen_exposure AS "Carcinogen Exposure",
+    REPLACE(
+        GROUP_CONCAT(
+            DISTINCT
+            UPPER(SUBSTR(LOWER(tgt.targeted_therapy), 1, 1)) ||
+            SUBSTR(LOWER(tgt.targeted_therapy), 2)
+        ),
+        ',',
+        ', '
+    ) AS "Targeted Therapy"
+FROM 
+    df_study std
+LEFT JOIN df_participant prt 
+    ON std.study_short_name = prt."study.study_short_name"
+LEFT JOIN df_diagnosis dgn 
+    ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN df_demographic demo 
+    ON prt.participant_id = demo."participant.participant_id"
+LEFT JOIN df_exposure exp 
+    ON prt.participant_id = exp."participant.participant_id"
+LEFT JOIN df_targeted_therapy tgt 
+    ON prt.participant_id = tgt."participant.participant_id"
+LEFT JOIN df_non_targeted_therapy ntt 
+    ON prt.participant_id = ntt."participant.participant_id"
+LEFT JOIN df_participant_status pst 
+    ON prt.participant_id = pst."participant.participant_id"
+LEFT JOIN df_biospecimen bio 
+    ON prt.participant_id = bio."participant.participant_id"
+LEFT JOIN df_file fil 
+    ON prt.participant_id = fil."participant.participant_id"
+WHERE 
+    std.study_id = 'NCT04314401'
+    AND bio.anatomical_collection_site = 'Neck'
+GROUP BY
+    prt.participant_id,
+    dgn.ctep_disease_term,
+    demo.age_at_enrollment,
+    demo.sex,
+    demo.race,
+    demo.ethnicity,
+    exp.carcinogen_exposure
 LIMIT 100;</t>
   </si>
 </sst>
@@ -691,7 +690,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -742,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -750,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
